--- a/Test/App测试用例.xlsx
+++ b/Test/App测试用例.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="21721"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="15480"/>
   </bookViews>
   <sheets>
     <sheet name="测试用例" sheetId="1" r:id="rId1"/>
     <sheet name="需求覆盖" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -723,15 +723,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>关闭设备的</t>
+    <t>切换到后台，在10秒钟之内切换回来</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1112,6 +1112,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="69">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1146,41 +1147,40 @@
     <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="68" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1495,24 +1495,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C3:F98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="D98" sqref="D98"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="34" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="33.950000000000003" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="8.83203125" style="4"/>
-    <col min="3" max="3" width="11.6640625" style="4" customWidth="1"/>
+    <col min="1" max="2" width="8.875" style="4"/>
+    <col min="3" max="3" width="11.625" style="4" customWidth="1"/>
     <col min="4" max="4" width="84" style="12" customWidth="1"/>
-    <col min="5" max="5" width="86.6640625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="4"/>
+    <col min="5" max="5" width="86.625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="17.875" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:6" ht="34" customHeight="1">
+    <row r="3" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C3" s="3" t="s">
         <v>18</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="3:6" ht="34" customHeight="1">
+    <row r="4" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C4" s="5" t="s">
         <v>19</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="3:6" ht="34" customHeight="1">
+    <row r="5" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C5" s="8" t="s">
         <v>22</v>
       </c>
@@ -1544,7 +1544,7 @@
       <c r="E5" s="9"/>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="3:6" ht="34" customHeight="1">
+    <row r="6" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C6" s="8" t="s">
         <v>23</v>
       </c>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="3:6" ht="34" customHeight="1">
+    <row r="7" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C7" s="8" t="s">
         <v>64</v>
       </c>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="3:6" ht="34" customHeight="1">
+    <row r="8" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C8" s="8" t="s">
         <v>66</v>
       </c>
@@ -1580,7 +1580,7 @@
       </c>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="3:6" ht="34" customHeight="1">
+    <row r="9" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C9" s="8" t="s">
         <v>69</v>
       </c>
@@ -1592,7 +1592,7 @@
       </c>
       <c r="F9" s="8"/>
     </row>
-    <row r="11" spans="3:6" ht="34" customHeight="1">
+    <row r="11" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C11" s="3" t="s">
         <v>24</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="3:6" ht="34" customHeight="1">
+    <row r="12" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C12" s="5" t="s">
         <v>19</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="3:6" ht="34" customHeight="1">
+    <row r="13" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C13" s="8" t="s">
         <v>22</v>
       </c>
@@ -1624,7 +1624,7 @@
       <c r="E13" s="9"/>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="3:6" ht="34" customHeight="1">
+    <row r="14" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C14" s="8" t="s">
         <v>23</v>
       </c>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="F14" s="8"/>
     </row>
-    <row r="16" spans="3:6" ht="34" customHeight="1">
+    <row r="16" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C16" s="3" t="s">
         <v>124</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="3:6" ht="34" customHeight="1">
+    <row r="17" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C17" s="5" t="s">
         <v>19</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="3:6" ht="34" customHeight="1">
+    <row r="18" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C18" s="8" t="s">
         <v>22</v>
       </c>
@@ -1668,7 +1668,7 @@
       <c r="E18" s="9"/>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="3:6" ht="34" customHeight="1">
+    <row r="19" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C19" s="8" t="s">
         <v>23</v>
       </c>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="3:6" ht="34" customHeight="1">
+    <row r="20" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C20" s="8" t="s">
         <v>0</v>
       </c>
@@ -1692,7 +1692,7 @@
       </c>
       <c r="F20" s="8"/>
     </row>
-    <row r="22" spans="3:6" ht="34" customHeight="1">
+    <row r="22" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C22" s="3" t="s">
         <v>125</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="3:6" ht="34" customHeight="1">
+    <row r="23" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C23" s="5" t="s">
         <v>19</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="3:6" ht="34" customHeight="1">
+    <row r="24" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C24" s="8" t="s">
         <v>22</v>
       </c>
@@ -1724,7 +1724,7 @@
       <c r="E24" s="9"/>
       <c r="F24" s="8"/>
     </row>
-    <row r="25" spans="3:6" ht="34" customHeight="1">
+    <row r="25" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C25" s="8" t="s">
         <v>23</v>
       </c>
@@ -1736,7 +1736,7 @@
       </c>
       <c r="F25" s="8"/>
     </row>
-    <row r="26" spans="3:6" ht="34" customHeight="1">
+    <row r="26" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C26" s="8" t="s">
         <v>64</v>
       </c>
@@ -1748,7 +1748,7 @@
       </c>
       <c r="F26" s="8"/>
     </row>
-    <row r="27" spans="3:6" ht="34" customHeight="1">
+    <row r="27" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C27" s="8" t="s">
         <v>66</v>
       </c>
@@ -1760,7 +1760,7 @@
       </c>
       <c r="F27" s="8"/>
     </row>
-    <row r="28" spans="3:6" ht="34" customHeight="1">
+    <row r="28" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C28" s="8" t="s">
         <v>69</v>
       </c>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="F28" s="8"/>
     </row>
-    <row r="29" spans="3:6" ht="34" customHeight="1">
+    <row r="29" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C29" s="8" t="s">
         <v>89</v>
       </c>
@@ -1784,7 +1784,7 @@
       </c>
       <c r="F29" s="8"/>
     </row>
-    <row r="30" spans="3:6" ht="34" customHeight="1">
+    <row r="30" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C30" s="8" t="s">
         <v>93</v>
       </c>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="F30" s="8"/>
     </row>
-    <row r="32" spans="3:6" ht="34" customHeight="1">
+    <row r="32" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C32" s="3" t="s">
         <v>80</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="3:6" ht="34" customHeight="1">
+    <row r="33" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C33" s="5" t="s">
         <v>19</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="3:6" ht="34" customHeight="1">
+    <row r="34" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C34" s="8" t="s">
         <v>22</v>
       </c>
@@ -1828,7 +1828,7 @@
       <c r="E34" s="9"/>
       <c r="F34" s="8"/>
     </row>
-    <row r="35" spans="3:6" ht="34" customHeight="1">
+    <row r="35" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C35" s="8" t="s">
         <v>23</v>
       </c>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="F35" s="8"/>
     </row>
-    <row r="36" spans="3:6" ht="34" customHeight="1">
+    <row r="36" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C36" s="8" t="s">
         <v>64</v>
       </c>
@@ -1852,7 +1852,7 @@
       </c>
       <c r="F36" s="8"/>
     </row>
-    <row r="37" spans="3:6" ht="34" customHeight="1">
+    <row r="37" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C37" s="8" t="s">
         <v>66</v>
       </c>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="F37" s="8"/>
     </row>
-    <row r="39" spans="3:6" ht="34" customHeight="1">
+    <row r="39" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C39" s="3" t="s">
         <v>96</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="40" spans="3:6" ht="34" customHeight="1">
+    <row r="40" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C40" s="5" t="s">
         <v>19</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="3:6" ht="34" customHeight="1">
+    <row r="41" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C41" s="8" t="s">
         <v>22</v>
       </c>
@@ -1896,7 +1896,7 @@
       <c r="E41" s="9"/>
       <c r="F41" s="8"/>
     </row>
-    <row r="42" spans="3:6" ht="34" customHeight="1">
+    <row r="42" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C42" s="8" t="s">
         <v>23</v>
       </c>
@@ -1908,7 +1908,7 @@
       </c>
       <c r="F42" s="8"/>
     </row>
-    <row r="43" spans="3:6" ht="34" customHeight="1">
+    <row r="43" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C43" s="8" t="s">
         <v>64</v>
       </c>
@@ -1920,7 +1920,7 @@
       </c>
       <c r="F43" s="8"/>
     </row>
-    <row r="44" spans="3:6" ht="34" customHeight="1">
+    <row r="44" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C44" s="8" t="s">
         <v>66</v>
       </c>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="F44" s="8"/>
     </row>
-    <row r="46" spans="3:6" ht="34" customHeight="1">
+    <row r="46" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C46" s="3" t="s">
         <v>101</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="47" spans="3:6" ht="34" customHeight="1">
+    <row r="47" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C47" s="5" t="s">
         <v>19</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="3:6" ht="34" customHeight="1">
+    <row r="48" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C48" s="8" t="s">
         <v>22</v>
       </c>
@@ -1964,7 +1964,7 @@
       <c r="E48" s="9"/>
       <c r="F48" s="8"/>
     </row>
-    <row r="49" spans="3:6" ht="34" customHeight="1">
+    <row r="49" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C49" s="8" t="s">
         <v>23</v>
       </c>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="F49" s="8"/>
     </row>
-    <row r="50" spans="3:6" ht="34" customHeight="1">
+    <row r="50" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C50" s="8" t="s">
         <v>64</v>
       </c>
@@ -1988,7 +1988,7 @@
       </c>
       <c r="F50" s="8"/>
     </row>
-    <row r="51" spans="3:6" ht="34" customHeight="1">
+    <row r="51" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C51" s="8" t="s">
         <v>66</v>
       </c>
@@ -2000,7 +2000,7 @@
       </c>
       <c r="F51" s="8"/>
     </row>
-    <row r="52" spans="3:6" ht="34" customHeight="1">
+    <row r="52" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C52" s="8" t="s">
         <v>69</v>
       </c>
@@ -2012,7 +2012,7 @@
       </c>
       <c r="F52" s="8"/>
     </row>
-    <row r="53" spans="3:6" ht="34" customHeight="1">
+    <row r="53" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C53" s="8" t="s">
         <v>89</v>
       </c>
@@ -2024,7 +2024,7 @@
       </c>
       <c r="F53" s="8"/>
     </row>
-    <row r="54" spans="3:6" ht="34" customHeight="1">
+    <row r="54" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C54" s="8" t="s">
         <v>93</v>
       </c>
@@ -2036,7 +2036,7 @@
       </c>
       <c r="F54" s="8"/>
     </row>
-    <row r="55" spans="3:6" ht="34" customHeight="1">
+    <row r="55" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C55" s="8" t="s">
         <v>120</v>
       </c>
@@ -2048,7 +2048,7 @@
       </c>
       <c r="F55" s="8"/>
     </row>
-    <row r="56" spans="3:6" ht="34" customHeight="1">
+    <row r="56" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C56" s="8" t="s">
         <v>126</v>
       </c>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="F56" s="8"/>
     </row>
-    <row r="58" spans="3:6" ht="34" customHeight="1">
+    <row r="58" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C58" s="3" t="s">
         <v>111</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="59" spans="3:6" ht="34" customHeight="1">
+    <row r="59" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C59" s="5" t="s">
         <v>19</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="3:6" ht="34" customHeight="1">
+    <row r="60" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C60" s="8" t="s">
         <v>22</v>
       </c>
@@ -2092,7 +2092,7 @@
       <c r="E60" s="9"/>
       <c r="F60" s="8"/>
     </row>
-    <row r="61" spans="3:6" ht="34" customHeight="1">
+    <row r="61" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C61" s="8" t="s">
         <v>23</v>
       </c>
@@ -2104,7 +2104,7 @@
       </c>
       <c r="F61" s="8"/>
     </row>
-    <row r="63" spans="3:6" ht="34" customHeight="1">
+    <row r="63" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C63" s="3" t="s">
         <v>112</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="64" spans="3:6" ht="34" customHeight="1">
+    <row r="64" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C64" s="5" t="s">
         <v>19</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="3:6" ht="34" customHeight="1">
+    <row r="65" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C65" s="8" t="s">
         <v>22</v>
       </c>
@@ -2136,7 +2136,7 @@
       <c r="E65" s="9"/>
       <c r="F65" s="8"/>
     </row>
-    <row r="66" spans="3:6" ht="34" customHeight="1">
+    <row r="66" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C66" s="8" t="s">
         <v>139</v>
       </c>
@@ -2146,7 +2146,7 @@
       <c r="E66" s="9"/>
       <c r="F66" s="8"/>
     </row>
-    <row r="67" spans="3:6" ht="34" customHeight="1">
+    <row r="67" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C67" s="8" t="s">
         <v>60</v>
       </c>
@@ -2156,7 +2156,7 @@
       <c r="E67" s="10"/>
       <c r="F67" s="8"/>
     </row>
-    <row r="68" spans="3:6" ht="34" customHeight="1">
+    <row r="68" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C68" s="8" t="s">
         <v>66</v>
       </c>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="F68" s="8"/>
     </row>
-    <row r="69" spans="3:6" ht="34" customHeight="1">
+    <row r="69" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C69" s="8" t="s">
         <v>69</v>
       </c>
@@ -2178,7 +2178,7 @@
       <c r="E69" s="10"/>
       <c r="F69" s="8"/>
     </row>
-    <row r="70" spans="3:6" ht="34" customHeight="1">
+    <row r="70" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C70" s="8" t="s">
         <v>89</v>
       </c>
@@ -2190,7 +2190,7 @@
       </c>
       <c r="F70" s="8"/>
     </row>
-    <row r="72" spans="3:6" ht="34" customHeight="1">
+    <row r="72" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C72" s="3" t="s">
         <v>142</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="73" spans="3:6" ht="34" customHeight="1">
+    <row r="73" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C73" s="5" t="s">
         <v>19</v>
       </c>
@@ -2212,7 +2212,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="3:6" ht="34" customHeight="1">
+    <row r="74" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C74" s="8" t="s">
         <v>22</v>
       </c>
@@ -2222,7 +2222,7 @@
       <c r="E74" s="9"/>
       <c r="F74" s="8"/>
     </row>
-    <row r="75" spans="3:6" ht="34" customHeight="1">
+    <row r="75" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C75" s="8" t="s">
         <v>139</v>
       </c>
@@ -2232,7 +2232,7 @@
       <c r="E75" s="9"/>
       <c r="F75" s="8"/>
     </row>
-    <row r="76" spans="3:6" ht="34" customHeight="1">
+    <row r="76" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C76" s="8" t="s">
         <v>60</v>
       </c>
@@ -2244,7 +2244,7 @@
       </c>
       <c r="F76" s="8"/>
     </row>
-    <row r="77" spans="3:6" ht="34" customHeight="1">
+    <row r="77" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C77" s="8" t="s">
         <v>66</v>
       </c>
@@ -2256,7 +2256,7 @@
       </c>
       <c r="F77" s="8"/>
     </row>
-    <row r="79" spans="3:6" ht="34" customHeight="1">
+    <row r="79" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C79" s="3" t="s">
         <v>149</v>
       </c>
@@ -2264,7 +2264,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="80" spans="3:6" ht="34" customHeight="1">
+    <row r="80" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C80" s="5" t="s">
         <v>19</v>
       </c>
@@ -2278,7 +2278,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="3:6" ht="34" customHeight="1">
+    <row r="81" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C81" s="8" t="s">
         <v>22</v>
       </c>
@@ -2288,7 +2288,7 @@
       <c r="E81" s="9"/>
       <c r="F81" s="8"/>
     </row>
-    <row r="82" spans="3:6" ht="34" customHeight="1">
+    <row r="82" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C82" s="8" t="s">
         <v>139</v>
       </c>
@@ -2298,7 +2298,7 @@
       <c r="E82" s="9"/>
       <c r="F82" s="8"/>
     </row>
-    <row r="83" spans="3:6" ht="34" customHeight="1">
+    <row r="83" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C83" s="8" t="s">
         <v>60</v>
       </c>
@@ -2308,7 +2308,7 @@
       <c r="E83" s="10"/>
       <c r="F83" s="8"/>
     </row>
-    <row r="84" spans="3:6" ht="34" customHeight="1">
+    <row r="84" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C84" s="8" t="s">
         <v>66</v>
       </c>
@@ -2320,7 +2320,7 @@
       </c>
       <c r="F84" s="8"/>
     </row>
-    <row r="86" spans="3:6" ht="34" customHeight="1">
+    <row r="86" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C86" s="3" t="s">
         <v>157</v>
       </c>
@@ -2328,7 +2328,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="87" spans="3:6" ht="34" customHeight="1">
+    <row r="87" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C87" s="5" t="s">
         <v>19</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="3:6" ht="34" customHeight="1">
+    <row r="88" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C88" s="8" t="s">
         <v>22</v>
       </c>
@@ -2352,7 +2352,7 @@
       <c r="E88" s="9"/>
       <c r="F88" s="8"/>
     </row>
-    <row r="89" spans="3:6" ht="34" customHeight="1">
+    <row r="89" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C89" s="8" t="s">
         <v>23</v>
       </c>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="F89" s="8"/>
     </row>
-    <row r="90" spans="3:6" ht="34" customHeight="1">
+    <row r="90" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C90" s="8" t="s">
         <v>60</v>
       </c>
@@ -2374,7 +2374,7 @@
       <c r="E90" s="10"/>
       <c r="F90" s="8"/>
     </row>
-    <row r="91" spans="3:6" ht="34" customHeight="1">
+    <row r="91" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C91" s="8" t="s">
         <v>66</v>
       </c>
@@ -2386,7 +2386,7 @@
       </c>
       <c r="F91" s="8"/>
     </row>
-    <row r="93" spans="3:6" ht="34" customHeight="1">
+    <row r="93" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C93" s="3" t="s">
         <v>161</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="94" spans="3:6" ht="34" customHeight="1">
+    <row r="94" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C94" s="5" t="s">
         <v>19</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="95" spans="3:6" ht="34" customHeight="1">
+    <row r="95" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C95" s="8" t="s">
         <v>22</v>
       </c>
@@ -2418,7 +2418,7 @@
       <c r="E95" s="9"/>
       <c r="F95" s="8"/>
     </row>
-    <row r="96" spans="3:6" ht="34" customHeight="1">
+    <row r="96" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C96" s="8" t="s">
         <v>23</v>
       </c>
@@ -2430,7 +2430,7 @@
       </c>
       <c r="F96" s="8"/>
     </row>
-    <row r="97" spans="3:6" ht="34" customHeight="1">
+    <row r="97" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C97" s="8" t="s">
         <v>60</v>
       </c>
@@ -2440,7 +2440,7 @@
       <c r="E97" s="10"/>
       <c r="F97" s="8"/>
     </row>
-    <row r="98" spans="3:6" ht="34" customHeight="1">
+    <row r="98" spans="3:6" ht="33.950000000000003" customHeight="1">
       <c r="C98" s="8" t="s">
         <v>66</v>
       </c>
@@ -2465,22 +2465,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:T40"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="28" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="27.95" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="8.5" style="2"/>
-    <col min="3" max="3" width="53.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="53.875" style="2" customWidth="1"/>
     <col min="4" max="20" width="8.5" style="1"/>
     <col min="21" max="16384" width="8.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" ht="28" customHeight="1">
+    <row r="2" spans="2:20" ht="27.95" customHeight="1">
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="14">
@@ -2552,7 +2552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:20" ht="28" customHeight="1">
+    <row r="3" spans="2:20" ht="27.95" customHeight="1">
       <c r="B3" s="13"/>
       <c r="C3" s="15"/>
       <c r="D3" s="16" t="s">
@@ -2607,7 +2607,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:20" ht="28" customHeight="1">
+    <row r="4" spans="2:20" ht="27.95" customHeight="1">
       <c r="B4" s="13">
         <f>COUNTIF(D4:T4, "ü")</f>
         <v>0</v>
@@ -2633,7 +2633,7 @@
       <c r="S4" s="18"/>
       <c r="T4" s="18"/>
     </row>
-    <row r="5" spans="2:20" ht="28" customHeight="1">
+    <row r="5" spans="2:20" ht="27.95" customHeight="1">
       <c r="B5" s="13">
         <f t="shared" ref="B5:B36" si="1">COUNTIF(D5:T5, "ü")</f>
         <v>0</v>
@@ -2659,7 +2659,7 @@
       <c r="S5" s="18"/>
       <c r="T5" s="18"/>
     </row>
-    <row r="6" spans="2:20" ht="28" customHeight="1">
+    <row r="6" spans="2:20" ht="27.95" customHeight="1">
       <c r="B6" s="13">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -2687,7 +2687,7 @@
       <c r="S6" s="18"/>
       <c r="T6" s="18"/>
     </row>
-    <row r="7" spans="2:20" ht="28" customHeight="1">
+    <row r="7" spans="2:20" ht="27.95" customHeight="1">
       <c r="B7" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2713,7 +2713,7 @@
       <c r="S7" s="18"/>
       <c r="T7" s="18"/>
     </row>
-    <row r="8" spans="2:20" ht="28" customHeight="1">
+    <row r="8" spans="2:20" ht="27.95" customHeight="1">
       <c r="B8" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2739,7 +2739,7 @@
       <c r="S8" s="18"/>
       <c r="T8" s="18"/>
     </row>
-    <row r="9" spans="2:20" ht="28" customHeight="1">
+    <row r="9" spans="2:20" ht="27.95" customHeight="1">
       <c r="B9" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2765,7 +2765,7 @@
       <c r="S9" s="18"/>
       <c r="T9" s="18"/>
     </row>
-    <row r="10" spans="2:20" ht="28" customHeight="1">
+    <row r="10" spans="2:20" ht="27.95" customHeight="1">
       <c r="B10" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2791,7 +2791,7 @@
       <c r="S10" s="18"/>
       <c r="T10" s="18"/>
     </row>
-    <row r="11" spans="2:20" ht="28" customHeight="1">
+    <row r="11" spans="2:20" ht="27.95" customHeight="1">
       <c r="B11" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2817,7 +2817,7 @@
       <c r="S11" s="18"/>
       <c r="T11" s="18"/>
     </row>
-    <row r="12" spans="2:20" ht="28" customHeight="1">
+    <row r="12" spans="2:20" ht="27.95" customHeight="1">
       <c r="B12" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2843,7 +2843,7 @@
       <c r="S12" s="18"/>
       <c r="T12" s="18"/>
     </row>
-    <row r="13" spans="2:20" ht="28" customHeight="1">
+    <row r="13" spans="2:20" ht="27.95" customHeight="1">
       <c r="B13" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2869,7 +2869,7 @@
       <c r="S13" s="18"/>
       <c r="T13" s="18"/>
     </row>
-    <row r="14" spans="2:20" ht="28" customHeight="1">
+    <row r="14" spans="2:20" ht="27.95" customHeight="1">
       <c r="B14" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2895,7 +2895,7 @@
       <c r="S14" s="18"/>
       <c r="T14" s="18"/>
     </row>
-    <row r="15" spans="2:20" ht="28" customHeight="1">
+    <row r="15" spans="2:20" ht="27.95" customHeight="1">
       <c r="B15" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2921,7 +2921,7 @@
       <c r="S15" s="18"/>
       <c r="T15" s="18"/>
     </row>
-    <row r="16" spans="2:20" ht="28" customHeight="1">
+    <row r="16" spans="2:20" ht="27.95" customHeight="1">
       <c r="B16" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2947,7 +2947,7 @@
       <c r="S16" s="18"/>
       <c r="T16" s="18"/>
     </row>
-    <row r="17" spans="2:20" ht="28" customHeight="1">
+    <row r="17" spans="2:20" ht="27.95" customHeight="1">
       <c r="B17" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2973,7 +2973,7 @@
       <c r="S17" s="18"/>
       <c r="T17" s="18"/>
     </row>
-    <row r="18" spans="2:20" ht="28" customHeight="1">
+    <row r="18" spans="2:20" ht="27.95" customHeight="1">
       <c r="B18" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2999,7 +2999,7 @@
       <c r="S18" s="18"/>
       <c r="T18" s="18"/>
     </row>
-    <row r="19" spans="2:20" ht="28" customHeight="1">
+    <row r="19" spans="2:20" ht="27.95" customHeight="1">
       <c r="B19" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3025,7 +3025,7 @@
       <c r="S19" s="18"/>
       <c r="T19" s="18"/>
     </row>
-    <row r="20" spans="2:20" ht="28" customHeight="1">
+    <row r="20" spans="2:20" ht="27.95" customHeight="1">
       <c r="B20" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3051,7 +3051,7 @@
       <c r="S20" s="18"/>
       <c r="T20" s="18"/>
     </row>
-    <row r="21" spans="2:20" ht="28" customHeight="1">
+    <row r="21" spans="2:20" ht="27.95" customHeight="1">
       <c r="B21" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3077,7 +3077,7 @@
       <c r="S21" s="18"/>
       <c r="T21" s="18"/>
     </row>
-    <row r="22" spans="2:20" ht="28" customHeight="1">
+    <row r="22" spans="2:20" ht="27.95" customHeight="1">
       <c r="B22" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3103,7 +3103,7 @@
       <c r="S22" s="18"/>
       <c r="T22" s="18"/>
     </row>
-    <row r="23" spans="2:20" ht="28" customHeight="1">
+    <row r="23" spans="2:20" ht="27.95" customHeight="1">
       <c r="B23" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3129,7 +3129,7 @@
       <c r="S23" s="18"/>
       <c r="T23" s="18"/>
     </row>
-    <row r="24" spans="2:20" ht="28" customHeight="1">
+    <row r="24" spans="2:20" ht="27.95" customHeight="1">
       <c r="B24" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3155,7 +3155,7 @@
       <c r="S24" s="18"/>
       <c r="T24" s="18"/>
     </row>
-    <row r="25" spans="2:20" ht="28" customHeight="1">
+    <row r="25" spans="2:20" ht="27.95" customHeight="1">
       <c r="B25" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3181,7 +3181,7 @@
       <c r="S25" s="18"/>
       <c r="T25" s="18"/>
     </row>
-    <row r="26" spans="2:20" ht="28" customHeight="1">
+    <row r="26" spans="2:20" ht="27.95" customHeight="1">
       <c r="B26" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3207,7 +3207,7 @@
       <c r="S26" s="18"/>
       <c r="T26" s="18"/>
     </row>
-    <row r="27" spans="2:20" ht="28" customHeight="1">
+    <row r="27" spans="2:20" ht="27.95" customHeight="1">
       <c r="B27" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3233,7 +3233,7 @@
       <c r="S27" s="18"/>
       <c r="T27" s="18"/>
     </row>
-    <row r="28" spans="2:20" ht="28" customHeight="1">
+    <row r="28" spans="2:20" ht="27.95" customHeight="1">
       <c r="B28" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3259,7 +3259,7 @@
       <c r="S28" s="18"/>
       <c r="T28" s="18"/>
     </row>
-    <row r="29" spans="2:20" ht="28" customHeight="1">
+    <row r="29" spans="2:20" ht="27.95" customHeight="1">
       <c r="B29" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3285,7 +3285,7 @@
       <c r="S29" s="18"/>
       <c r="T29" s="18"/>
     </row>
-    <row r="30" spans="2:20" ht="28" customHeight="1">
+    <row r="30" spans="2:20" ht="27.95" customHeight="1">
       <c r="B30" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3311,7 +3311,7 @@
       <c r="S30" s="18"/>
       <c r="T30" s="18"/>
     </row>
-    <row r="31" spans="2:20" ht="28" customHeight="1">
+    <row r="31" spans="2:20" ht="27.95" customHeight="1">
       <c r="B31" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3337,7 +3337,7 @@
       <c r="S31" s="18"/>
       <c r="T31" s="18"/>
     </row>
-    <row r="32" spans="2:20" ht="28" customHeight="1">
+    <row r="32" spans="2:20" ht="27.95" customHeight="1">
       <c r="B32" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3363,7 +3363,7 @@
       <c r="S32" s="18"/>
       <c r="T32" s="18"/>
     </row>
-    <row r="33" spans="2:20" ht="28" customHeight="1">
+    <row r="33" spans="2:20" ht="27.95" customHeight="1">
       <c r="B33" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3389,7 +3389,7 @@
       <c r="S33" s="18"/>
       <c r="T33" s="18"/>
     </row>
-    <row r="34" spans="2:20" ht="28" customHeight="1">
+    <row r="34" spans="2:20" ht="27.95" customHeight="1">
       <c r="B34" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3415,7 +3415,7 @@
       <c r="S34" s="18"/>
       <c r="T34" s="18"/>
     </row>
-    <row r="35" spans="2:20" ht="28" customHeight="1">
+    <row r="35" spans="2:20" ht="27.95" customHeight="1">
       <c r="B35" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3441,7 +3441,7 @@
       <c r="S35" s="18"/>
       <c r="T35" s="18"/>
     </row>
-    <row r="36" spans="2:20" ht="28" customHeight="1">
+    <row r="36" spans="2:20" ht="27.95" customHeight="1">
       <c r="B36" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3467,7 +3467,7 @@
       <c r="S36" s="18"/>
       <c r="T36" s="18"/>
     </row>
-    <row r="40" spans="2:20" ht="28" customHeight="1">
+    <row r="40" spans="2:20" ht="27.95" customHeight="1">
       <c r="C40" s="13"/>
     </row>
   </sheetData>
